--- a/1548347769.6300871_statdata.xlsx
+++ b/1548347769.6300871_statdata.xlsx
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -781,19 +781,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E2">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="F2">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -801,19 +801,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9977753031397179</v>
+        <v>0.9797958971132715</v>
       </c>
       <c r="C3">
-        <v>0.6798692684790379</v>
+        <v>0.4988876515698589</v>
       </c>
       <c r="D3">
-        <v>0.6798692684790379</v>
+        <v>0.4988876515698589</v>
       </c>
       <c r="E3">
-        <v>0.6798692684790379</v>
+        <v>0.4988876515698589</v>
       </c>
       <c r="F3">
-        <v>0.6798692684790379</v>
+        <v>0.4988876515698589</v>
       </c>
     </row>
   </sheetData>
@@ -921,19 +921,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -941,19 +941,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.997775303139718</v>
+        <v>0.9797958971132715</v>
       </c>
       <c r="C3">
-        <v>0.9165151389911681</v>
+        <v>0.8459051693633014</v>
       </c>
       <c r="D3">
-        <v>0.9165151389911681</v>
+        <v>0.8459051693633014</v>
       </c>
       <c r="E3">
-        <v>0.9165151389911681</v>
+        <v>0.8459051693633014</v>
       </c>
       <c r="F3">
-        <v>0.9165151389911681</v>
+        <v>0.8459051693633014</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.9983333333333332</v>
+        <v>0.999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.003726779962499653</v>
+        <v>0.003000000000000003</v>
       </c>
       <c r="C3">
         <v>0</v>
